--- a/biology/Histoire de la zoologie et de la botanique/Denis_Buican/Denis_Buican.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Denis_Buican/Denis_Buican.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denis Buican, né Dumitru Peligrad le 21 décembre 1934 à Bucarest, est un biologiste, philosophe et historien des sciences roumain naturalisé français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Buican, né Dumitru Peligrad le 21 décembre 1934 à Bucarest, est un biologiste, philosophe et historien des sciences roumain naturalisé français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Agronome et généticien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant qu'ingénieur agronome (1956), docteur en génétique (1961), puis professeur à l'université de Bucarest en Roumanie communiste, il s'intéresse à la radiogénétique  (ses premières études portent sur l'influence de l'électricité sur la vie des plantes) mais s'oppose aux théories pseudo-scientifiques de Trofim Lyssenko diffusées dans les États communistes à l'époque staliniste, à partir de 1948 : en conséquence, son laboratoire est saccagé par la Securitate et lui-même est banni de l'université à la fin des années 1950 sur demande du parti communiste roumain (qui a été, durant 45 ans, parti unique). Après la déstalinisation, alors que l'état communiste entre dans une période de détente, Dumitru Peligrad décrit l'imposture du « lyssenkisme » dans son premier livre, publié en roumain en 1969 : Biologie générale, génétique et amélioration et quitte la Roumanie à l'occasion d'un congrès international à Nanterre. Naturalisé français en 1972 sous le nom de Denis Buican, il entreprend une œuvre d'historien et de philosophe des sciences, matérialisée par sa thèse d'État (1983) : Histoire de la génétique et de l'évolutionnisme en France. En 1989, son livre La révolution de l'évolution obtient un grand prix de l'Académie française. En 1997, il préside la section « Biologie et sciences médicales » du XXe Congrès international d'Histoire des Sciences (Liège, Belgique).
 Professeur d'histoire des sciences à l'université Paris X-Nanterre (1983-2003), il est l'auteur d'une nouvelle théorie de l'évolution : la théorie synergique de l'évolution. Il a également élaboré une nouvelle théorie de la connaissance, qu'il appelle « biognoséologie ».
@@ -543,10 +557,12 @@
           <t>Biologiste et théoricien de l'évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque la Roumanie devient communiste, Dumitru Peligrad junior (qui prendra beaucoup plus tard le nom de Denis Buican) n'a que dix ans. En raison de ses origines (son père Dumitru Peligrad senior était un aristocrate), la famille Peligrad est placée en résidence surveillée[2]. En dépit de ces chicanes, le jeune Dumitru réussit à s'inscrire à l'université de Bucarest où il fonde en 1955 le premier laboratoire de radiobiologie de Roumanie et devient ingénieur agronome l'année suivante. Les théories lyssenkistes suscitent ses critiques, ce qui lui vaut la haine du régime dont les agents vandalisent son laboratoire à trois reprises, en 1957, 1960 et 1962[2]. Il poursuit néanmoins ses recherches sur la résistance au froid et l'hétérosis (ou « vigueur hybride ») chez les hybrides de Zea mays (le maïs). Ses travaux, qui font l'objet d'une première thèse de doctorat ès-sciences naturelles soutenue à Bucarest en 1961, seront complétés et exposés dès son arrivée en France dans une seconde thèse, soutenue cette fois devant la faculté des sciences de Paris en 1970, sous la direction de Roger Gautheret[2].
-En biologie, Denis Buican développe un nouveau modèle : la théorie synergique de l'évolution, qui entend actualiser et compléter la théorie synthétique. Selon ce modèle, la sélection naturelle mise en évidence par Darwin ne s'applique qu'au phénotype, et certains phénomènes (comme les mutations létales) insuffisamment pris en compte, introduisent « une notion nouvelle dans le processus héréditaire et évolutif : la pré-sélection génotypique » qui peut être définie « comme l'opération naturelle qui élimine a priori, au niveau du génotype, toute combinaison génétique ou toute mutation impropre à la survie de celui-ci »[3]. S'inspirant de la théorie des systèmes de Ludwig von Bertalanffy, la théorie synergique envisage une sélection multipolaire, capable de jouer à tous les niveaux du vivant, de l'atome à la société en passant par le génome et l'organisme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la Roumanie devient communiste, Dumitru Peligrad junior (qui prendra beaucoup plus tard le nom de Denis Buican) n'a que dix ans. En raison de ses origines (son père Dumitru Peligrad senior était un aristocrate), la famille Peligrad est placée en résidence surveillée. En dépit de ces chicanes, le jeune Dumitru réussit à s'inscrire à l'université de Bucarest où il fonde en 1955 le premier laboratoire de radiobiologie de Roumanie et devient ingénieur agronome l'année suivante. Les théories lyssenkistes suscitent ses critiques, ce qui lui vaut la haine du régime dont les agents vandalisent son laboratoire à trois reprises, en 1957, 1960 et 1962. Il poursuit néanmoins ses recherches sur la résistance au froid et l'hétérosis (ou « vigueur hybride ») chez les hybrides de Zea mays (le maïs). Ses travaux, qui font l'objet d'une première thèse de doctorat ès-sciences naturelles soutenue à Bucarest en 1961, seront complétés et exposés dès son arrivée en France dans une seconde thèse, soutenue cette fois devant la faculté des sciences de Paris en 1970, sous la direction de Roger Gautheret.
+En biologie, Denis Buican développe un nouveau modèle : la théorie synergique de l'évolution, qui entend actualiser et compléter la théorie synthétique. Selon ce modèle, la sélection naturelle mise en évidence par Darwin ne s'applique qu'au phénotype, et certains phénomènes (comme les mutations létales) insuffisamment pris en compte, introduisent « une notion nouvelle dans le processus héréditaire et évolutif : la pré-sélection génotypique » qui peut être définie « comme l'opération naturelle qui élimine a priori, au niveau du génotype, toute combinaison génétique ou toute mutation impropre à la survie de celui-ci ». S'inspirant de la théorie des systèmes de Ludwig von Bertalanffy, la théorie synergique envisage une sélection multipolaire, capable de jouer à tous les niveaux du vivant, de l'atome à la société en passant par le génome et l'organisme.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Philosophe et historien des sciences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Professeur invité à la Sorbonne (1969-1974), maître-assistant à l'université de Dijon (1974-1980) puis à Paris I (1980-1983), Denis Buican enseigne la philosophie et l'histoire des sciences biologiques, tout en préparant une thèse d'État sur l'histoire de la génétique en France sous la direction de Jacques Roger[4].
-Philosophe des sciences, il redéfinit notamment la place du hasard dans l'évolution, en se démarquant des positions de Jacques Monod : au-delà du hasard absolu postulé par le prix Nobel, il prône un « hasard orienté » (qu'il baptise du nom d'« orthodrome évolutif ») et envisage dès cette époque[5] les possibilités offertes par les manipulations génétiques - que confirmeront les premiers travaux de génie génétique réalisés en 1974. Denis Buican a aussi conçu une nouvelle théorie de la connaissance, la biognoséologie, qui tente de dépasser la distinction kantienne entre les phénomènes et les noumènes (ces « choses en soi » qui échapperaient selon Kant à l'investigation humaine) : s'appuyant sur les données de l'éthologie et les progrès de la biologie moléculaire, il envisage des « noumènes relatifs », qui permettraient d'appréhender une réalité probable.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur invité à la Sorbonne (1969-1974), maître-assistant à l'université de Dijon (1974-1980) puis à Paris I (1980-1983), Denis Buican enseigne la philosophie et l'histoire des sciences biologiques, tout en préparant une thèse d'État sur l'histoire de la génétique en France sous la direction de Jacques Roger.
+Philosophe des sciences, il redéfinit notamment la place du hasard dans l'évolution, en se démarquant des positions de Jacques Monod : au-delà du hasard absolu postulé par le prix Nobel, il prône un « hasard orienté » (qu'il baptise du nom d'« orthodrome évolutif ») et envisage dès cette époque les possibilités offertes par les manipulations génétiques - que confirmeront les premiers travaux de génie génétique réalisés en 1974. Denis Buican a aussi conçu une nouvelle théorie de la connaissance, la biognoséologie, qui tente de dépasser la distinction kantienne entre les phénomènes et les noumènes (ces « choses en soi » qui échapperaient selon Kant à l'investigation humaine) : s'appuyant sur les données de l'éthologie et les progrès de la biologie moléculaire, il envisage des « noumènes relatifs », qui permettraient d'appréhender une réalité probable.
 Historien, s'appuyant sur le modèle épistémologique de Thomas Kuhn (La structure des révolutions scientifiques, 1962), il envisage l'introduction de la génétique en France comme une « course à obstacles » : la science de l'hérédité ne s'y impose qu'en 1945, non sans résistances de la part des biologistes eux-mêmes, pour la plupart attachés au néolamarckisme. Devenu professeur à Nanterre en 1983, Denis Buican a consacré l'essentiel de ses recherches à l'histoire du darwinisme, de l'évolution et de la génétique, qu'il développe dans de nombreuses synthèses.
 </t>
         </is>
@@ -608,12 +626,14 @@
           <t>Engagements politiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les positions politiques de Denis Buican, telles qu'il les exprime dans ses ouvrages, combinent des principes proches du probabilisme, de l'humanisme occidental de Montesquieu et de l'élitisme méritocratique cher à beaucoup d'intellectuels roumains de sa génération tels Mircea Eliade ou Emil Cioran[6]. Récusant tant les doctrines révolutionnaires violentes que les démocraties occidentales d'apparence, qu'il qualifie de « démagogies policières et ploutocratiques », il plaide pour une société ouverte, fondée sur le principe de la séparation et du contrôle réciproques des pouvoirs, la reconnaissance et le respect des mérites et de la valeur individuelle, et l'égalité des chances sans discrimination aucune, de classe ou de race, de religion, de mœurs ou de coutumes. Probabiliste, il souhaite que la société permette à chacun de développer pleinement ses virtualités héréditaires.
-Il consacre un essai, L'éternel retour de Lyssenko (1978) dénonçant les thèses du philosophe Dominique Lecourt, auteur d'un Lyssenko publié en 1976, qui dénie au marxisme toute responsabilité dans l'émergence puis le triomphe sous Staline des thèses lyssenkistes. Buican, en revanche, démontre que les racines du lyssenkisme plongent dans le messianisme et le déterminisme de Marx et Engels, et ainsi il s'aliène tous les « ostalgiques » voulant croire que « communisme réel » n'était pas qu'une escroquerie politique de la nomenklatura privant le prolétariat de tout espoir d'accéder un jour à une société sans classes et sans État[7],[8], mais une alternative toujours possible à l'aliénation capitaliste[9].
-Denis Buican distingue le génocide de race commis par Hitler et les régimes nationalistes, du génocide de classe commis par Staline et les états communistes[10]. Cette position comparatiste, très fréquente dans les pays ayant subi les deux totalitarismes, est l'objet d'âpres critiques en Europe de l'Ouest et aux États-Unis, car elle déroge à la règle acceptée par la majorité des gouvernements du monde, qui postule que seuls peuvent être juridiquement reconnus comme « génocides » les crimes de masse commis pour des motifs ethniques, culturels, religieux, « raciaux » ou nationaux, mais pas sociaux[11]. Toutefois, en 2007, en Roumanie, la « Commission historique d'investigation et d'analyse des crimes du régime communiste » reconnaît officiellement comme « génocide » l'ensemble des crimes du régime communiste de Roumanie, où un « Mémorial de la Résistance et des victimes du communisme » est fondé en 1993 par d'anciens dissidents à Sighetu Marmației[12] : elle impute à l'état communiste roumain 2 215 000 victimes en 45 ans soit environ 10 % de la population, et en 2017, l'Ukraine et, à sa suite, 24 autres pays reconnaissent officiellement comme « génocide » la grande famine soviétique des années 1930[13].
-Très critique vis-à-vis du système universitaire français, dont il dénonce volontiers le clanisme, il considère qu'« une société, en même temps équitable et performante, a besoin d'un système d'enseignement sélectif et même micro-sélectif capable d'offrir à tout un chacun, du berceau jusqu'au tombeau, la possibilité de se développer jusqu'où son patrimoine héréditaire le permet »[14]. De telles affirmations lui valent de nombreuses inimitiés.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les positions politiques de Denis Buican, telles qu'il les exprime dans ses ouvrages, combinent des principes proches du probabilisme, de l'humanisme occidental de Montesquieu et de l'élitisme méritocratique cher à beaucoup d'intellectuels roumains de sa génération tels Mircea Eliade ou Emil Cioran. Récusant tant les doctrines révolutionnaires violentes que les démocraties occidentales d'apparence, qu'il qualifie de « démagogies policières et ploutocratiques », il plaide pour une société ouverte, fondée sur le principe de la séparation et du contrôle réciproques des pouvoirs, la reconnaissance et le respect des mérites et de la valeur individuelle, et l'égalité des chances sans discrimination aucune, de classe ou de race, de religion, de mœurs ou de coutumes. Probabiliste, il souhaite que la société permette à chacun de développer pleinement ses virtualités héréditaires.
+Il consacre un essai, L'éternel retour de Lyssenko (1978) dénonçant les thèses du philosophe Dominique Lecourt, auteur d'un Lyssenko publié en 1976, qui dénie au marxisme toute responsabilité dans l'émergence puis le triomphe sous Staline des thèses lyssenkistes. Buican, en revanche, démontre que les racines du lyssenkisme plongent dans le messianisme et le déterminisme de Marx et Engels, et ainsi il s'aliène tous les « ostalgiques » voulant croire que « communisme réel » n'était pas qu'une escroquerie politique de la nomenklatura privant le prolétariat de tout espoir d'accéder un jour à une société sans classes et sans État mais une alternative toujours possible à l'aliénation capitaliste.
+Denis Buican distingue le génocide de race commis par Hitler et les régimes nationalistes, du génocide de classe commis par Staline et les états communistes. Cette position comparatiste, très fréquente dans les pays ayant subi les deux totalitarismes, est l'objet d'âpres critiques en Europe de l'Ouest et aux États-Unis, car elle déroge à la règle acceptée par la majorité des gouvernements du monde, qui postule que seuls peuvent être juridiquement reconnus comme « génocides » les crimes de masse commis pour des motifs ethniques, culturels, religieux, « raciaux » ou nationaux, mais pas sociaux. Toutefois, en 2007, en Roumanie, la « Commission historique d'investigation et d'analyse des crimes du régime communiste » reconnaît officiellement comme « génocide » l'ensemble des crimes du régime communiste de Roumanie, où un « Mémorial de la Résistance et des victimes du communisme » est fondé en 1993 par d'anciens dissidents à Sighetu Marmației : elle impute à l'état communiste roumain 2 215 000 victimes en 45 ans soit environ 10 % de la population, et en 2017, l'Ukraine et, à sa suite, 24 autres pays reconnaissent officiellement comme « génocide » la grande famine soviétique des années 1930.
+Très critique vis-à-vis du système universitaire français, dont il dénonce volontiers le clanisme, il considère qu'« une société, en même temps équitable et performante, a besoin d'un système d'enseignement sélectif et même micro-sélectif capable d'offrir à tout un chacun, du berceau jusqu'au tombeau, la possibilité de se développer jusqu'où son patrimoine héréditaire le permet ». De telles affirmations lui valent de nombreuses inimitiés.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Poète</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Écrivain de langues roumaine et française, il a publié plusieurs recueils de poèmes, d'une sensibilité originale, proches des œuvres de Lucian Blaga et de Tudor Arghezi. Hantés par le néant, ces courts poèmes, très denses, s'ouvrent sur un univers qui n'est pas sans rappeler celui du philosophe Cioran.
 </t>
@@ -675,8 +697,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Épistémologie et histoire des sciences
-En collaboration avec Bogdan Stugren, Biologie générale, génétique et amélioration, Bucarest, Éditions didactiques et pédagogiques, 1969 (en langue roumaine).
+          <t>Épistémologie et histoire des sciences</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En collaboration avec Bogdan Stugren, Biologie générale, génétique et amélioration, Bucarest, Éditions didactiques et pédagogiques, 1969 (en langue roumaine).
 L'Éternel Retour de Lyssenko, Paris, Copernic, 1978 (traduit en italien, Armando Armando, 1983).
 Sur-Être ? Hérédité et avenir de l'homme, Paris, Serge Fleury, 1983.
 Histoire de la génétique et de l'évolutionnisme en France, Paris, PUF, 1984. Préface de Pierre Chaunu.
@@ -703,9 +730,43 @@
 L'Odyssée de l'évolution, Paris, Ellipses, 2008.
 Biologie. Histoire et philosophie, Paris, CNRS éditions, 2010.
 L'Évolution. Histoire et controverses, coauteur Cédric Grimoult, Paris, CNRS éditions, 2011.
-Darwin et l'épopée de l'évolutionnisme, Paris, Perrin, 2012.
-Sélection d'articles
-« Hasard, nécessité et logique du vivant », La Nouvelle Revue Française, septembre 1971, no 225, 77-85.
+Darwin et l'épopée de l'évolutionnisme, Paris, Perrin, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Denis_Buican</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Buican</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélection d'articles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« Hasard, nécessité et logique du vivant », La Nouvelle Revue Française, septembre 1971, no 225, 77-85.
 « Sur le développement de la génétique classique en France », Revue de Synthèse, avril-décembre 1973, XCIX, 233-241.
 « Le microphénomène et la philosophie de la biologie moderne », Scientia, 1974, 109, 1-20.
 « Réflexions sur la dynamique de la science et de son histoire », La Pensée et les Hommes, avril 1976, 304-308.
@@ -725,15 +786,83 @@
 « Communisme et lyssenkisme : de Moscou à Paris », Contrepoint, no 48, 1984, 175-198.
 « Diderot et la biologie de l'Encyclopédie », La Pensée et les Hommes, décembre 1984, 149-157.
 « Abus de rationalisme et de déterminisme dans les sciences de la nature », La Pensée et les Hommes, 18, 1991, 61-70.
-« Mensonge et faux-semblant chez les biologistes », La Pensée et les Hommes, 22, 1993, 57-64.
-Essais
-Dracula et ses avatars de Vlad l'Empaleur à Staline et Ceaușescu, La Garenne-Colombes, Éditions de l'Espace européen, 1991.
+« Mensonge et faux-semblant chez les biologistes », La Pensée et les Hommes, 22, 1993, 57-64.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Denis_Buican</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Buican</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dracula et ses avatars de Vlad l'Empaleur à Staline et Ceaușescu, La Garenne-Colombes, Éditions de l'Espace européen, 1991.
 Les métamorphoses de Dracula. L'histoire et la légende, Paris, Le Félin, 1993.
 L'Université : vache folle et sacrée de la République, Paris, François-Xavier de Guibert, 2004.
 O viață sfârtecată între Răsărit și Apus. Memorii (Une vie écartelée entre l'Est et l'Ouest. Mémoires), Bucarest, CD Press, 2007.
-Mosaïque profane, édition bilingue, Bucarest, CD Press, 2010.
-Œuvres littéraires
-Arbre seul (poèmes), Paris, Pierre-Jean Oswald, 1974.
+Mosaïque profane, édition bilingue, Bucarest, CD Press, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Denis_Buican</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Buican</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Arbre seul (poèmes), Paris, Pierre-Jean Oswald, 1974.
 Lumière aveugle (poèmes), Paris, Saint-Germain-des-Prés, 1976.
 Mamura (poèmes), Bucarest, Demiurg, 1993.
 Spice. Poèmes anciens et nouveaux, Bucarest, CD Press, 2006.
@@ -744,31 +873,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Denis_Buican</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Denis_Buican</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Denis_Buican</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Buican</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix Cino Del Duca de poésie, 1973.
 Professeur invité au Collège de France, février 1984 et mars 1993.
